--- a/output/0/tRNA-Ile-TAT-2-2.xlsx
+++ b/output/0/tRNA-Ile-TAT-2-2.xlsx
@@ -12,90 +12,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
   <si>
     <t>chr6</t>
   </si>
   <si>
-    <t>26987752</t>
-  </si>
-  <si>
-    <t>26987775</t>
+    <t>26988127</t>
+  </si>
+  <si>
+    <t>26988150</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>26988130</t>
+  </si>
+  <si>
+    <t>150,150,150</t>
+  </si>
+  <si>
+    <t>255,0,0</t>
+  </si>
+  <si>
+    <t>GCGCTAACCGATTGCGCCAC</t>
+  </si>
+  <si>
+    <t>TGG</t>
+  </si>
+  <si>
+    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
+  </si>
+  <si>
+    <t>21% (39)</t>
+  </si>
+  <si>
+    <t>83% (63)</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>Sequence is not unique in genome</t>
+  </si>
+  <si>
+    <t>26988131</t>
+  </si>
+  <si>
+    <t>26988154</t>
+  </si>
+  <si>
     <t>+</t>
-  </si>
-  <si>
-    <t>26987772</t>
-  </si>
-  <si>
-    <t>150,150,150</t>
-  </si>
-  <si>
-    <t>255,0,0</t>
-  </si>
-  <si>
-    <t>ACCCTGGGAGAGGCAAGGGA</t>
-  </si>
-  <si>
-    <t>AGG</t>
-  </si>
-  <si>
-    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
-  </si>
-  <si>
-    <t>56% (52)</t>
-  </si>
-  <si>
-    <t>67% (53)</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>Sequence is not unique in genome</t>
-  </si>
-  <si>
-    <t>26988127</t>
-  </si>
-  <si>
-    <t>26988150</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>26988130</t>
-  </si>
-  <si>
-    <t>GCGCTAACCGATTGCGCCAC</t>
-  </si>
-  <si>
-    <t>TGG</t>
-  </si>
-  <si>
-    <t>21% (39)</t>
-  </si>
-  <si>
-    <t>83% (63)</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>26988131</t>
-  </si>
-  <si>
-    <t>26988154</t>
   </si>
   <si>
     <t>26988151</t>
@@ -209,7 +182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -232,10 +205,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -291,10 +264,10 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
         <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
@@ -350,10 +323,10 @@
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
@@ -368,22 +341,22 @@
         <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M3" t="s">
         <v>10</v>
       </c>
       <c r="N3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" t="s">
         <v>31</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>32</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>33</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>34</v>
       </c>
       <c r="R3" t="s">
         <v>15</v>
@@ -397,10 +370,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
         <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -409,7 +382,7 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
         <v>36</v>
@@ -424,89 +397,30 @@
         <v>7</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="M4" t="s">
         <v>10</v>
       </c>
       <c r="N4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" t="s">
         <v>39</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>40</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>41</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>42</v>
       </c>
       <c r="R4" t="s">
         <v>15</v>
       </c>
       <c r="S4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" t="s">
-        <v>48</v>
-      </c>
-      <c r="P5" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>50</v>
-      </c>
-      <c r="R5" t="s">
-        <v>15</v>
-      </c>
-      <c r="S5" t="s">
         <v>3</v>
       </c>
     </row>
